--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_03_Unicode.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_03_Unicode.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unicode" sheetId="1" r:id="R73e9636531b344db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unicode" sheetId="1" r:id="Rce3d4ff6efc94c35"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_03_Unicode.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_03_Unicode.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unicode" sheetId="1" r:id="Rce3d4ff6efc94c35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unicode" sheetId="1" r:id="Ra035e2a858b9427f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
